--- a/forms/app/covid_symptoms_followup.xlsx
+++ b/forms/app/covid_symptoms_followup.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="225">
   <si>
     <t>list_name</t>
   </si>
@@ -592,9 +592,6 @@
     <t>begin_group</t>
   </si>
   <si>
-    <t>Initial Sample Collection</t>
-  </si>
-  <si>
     <t>Was an initial COVID 19 sample collected?</t>
   </si>
   <si>
@@ -698,13 +695,22 @@
   </si>
   <si>
     <t>${followup_sample} = 'yes'</t>
+  </si>
+  <si>
+    <t>Followup Sample Collection</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>field-list summary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -794,6 +800,25 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -944,7 +969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1101,6 +1126,14 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1317,13 +1350,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN75"/>
+  <dimension ref="A1:AN79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1852,7 +1885,7 @@
         <v>68</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -3755,13 +3788,13 @@
       <c r="AN50" s="12"/>
     </row>
     <row r="51" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="64" t="s">
         <v>129</v>
       </c>
       <c r="D51" s="14"/>
@@ -4260,7 +4293,7 @@
         <v>154</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>31</v>
@@ -4653,19 +4686,19 @@
       <c r="AN68" s="12"/>
     </row>
     <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="65" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="B70" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="C70" s="54" t="s">
-        <v>187</v>
+      <c r="B70" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="C70" s="66" t="s">
+        <v>222</v>
       </c>
       <c r="G70" s="55" t="s">
         <v>45</v>
@@ -4676,10 +4709,10 @@
         <v>127</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D71" s="20" t="s">
         <v>31</v>
@@ -4690,66 +4723,85 @@
         <v>163</v>
       </c>
       <c r="B72" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C72" s="14" t="s">
         <v>189</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>190</v>
       </c>
       <c r="D72" s="20" t="s">
         <v>31</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J72" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K72" s="14" t="s">
         <v>206</v>
-      </c>
-      <c r="K72" s="14" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B73" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="C73" s="14" t="s">
         <v>192</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>193</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>31</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B74" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="C74" s="14" t="s">
         <v>195</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>196</v>
       </c>
       <c r="D74" s="20" t="s">
         <v>31</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="54" t="s">
-        <v>197</v>
+      <c r="A75" s="66" t="s">
+        <v>196</v>
       </c>
       <c r="B75" s="54" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C75" s="16"/>
+    </row>
+    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" s="67" t="s">
+        <v>223</v>
+      </c>
+      <c r="C76" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="G76" s="67" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="67" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -4986,46 +5038,46 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="C16" s="53" t="s">
         <v>199</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>200</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B17" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="53" t="s">
         <v>201</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>202</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B18" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="53" t="s">
         <v>203</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>204</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C19" s="53" t="s">
         <v>185</v>
@@ -5034,13 +5086,13 @@
     </row>
     <row r="20" spans="1:16" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="C20" s="57" t="s">
         <v>210</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>211</v>
       </c>
       <c r="D20" s="58"/>
       <c r="E20" s="58"/>
@@ -5058,13 +5110,13 @@
     </row>
     <row r="21" spans="1:16" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="56" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B21" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" s="57" t="s">
         <v>212</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>213</v>
       </c>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
@@ -5082,21 +5134,21 @@
     </row>
     <row r="22" spans="1:16" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="56" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B22" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="57" t="s">
         <v>214</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="56" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C23" s="57" t="s">
         <v>185</v>
@@ -5104,7 +5156,7 @@
     </row>
     <row r="24" spans="1:16" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="59" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B24" s="60" t="s">
         <v>31</v>
@@ -5115,7 +5167,7 @@
     </row>
     <row r="25" spans="1:16" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="59" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B25" s="60" t="s">
         <v>34</v>
@@ -5126,13 +5178,13 @@
     </row>
     <row r="26" spans="1:16" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="C26" s="53" t="s">
         <v>217</v>
-      </c>
-      <c r="C26" s="53" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11053,7 +11105,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-01 23-30</v>
+        <v>2021-01-01 23-55</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>40</v>
